--- a/testcase/testcase.xlsx
+++ b/testcase/testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>自动化测试测试用例</t>
   </si>
@@ -95,11 +95,15 @@
 }..headers=={'Content-Type':'application/json','Accept':'*/*','Cookie':'thinkjs=35dfdb4e-3d48-4ccd-844c-ffd8892b8956; hqUser=taTest_admin'}</t>
   </si>
   <si>
+    <t>获取短信验证码并注册</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>{'msg': '这是我开1发的第一个接口', 'msg_code': 0}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>获取短信验证码并注册</t>
+    <t>['1']</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -548,9 +552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEZ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
@@ -633,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -652,10 +656,10 @@
         <v>18</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>21</v>
